--- a/UVDLP/Docs/BOM1.xlsx
+++ b/UVDLP/Docs/BOM1.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Description</t>
   </si>
@@ -100,6 +101,18 @@
   </si>
   <si>
     <t>Does this come with wiring, switches, etc? Could just arduino and 2 stepper controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEP Tape </t>
+  </si>
+  <si>
+    <t>12x24" FEP Tape as a vat coating - http://catalog.cshyde.com/item/-categories-ptfe-teflon-products-ptfe-teflon-films/fep-pfa-clear-ptfe-film/23-1-2fep-24?&amp;plpver=1002&amp;origin=keyword&amp;by=prod&amp;filter=0</t>
+  </si>
+  <si>
+    <t>214x200 Borosilicate Glass Vat bottom</t>
+  </si>
+  <si>
+    <t>http://www.ebay.com/itm/Borosilicate-glass-for-RepRap-3D-printers-214mm-x-200mm-x-3-3mm-/221258768866?pt=LH_DefaultDomain_0&amp;hash=item33840ce1e2</t>
   </si>
 </sst>
 </file>
@@ -455,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:G20"/>
+  <dimension ref="B3:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -529,7 +542,7 @@
         <v>1.3</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E18" si="0">$C6*D6</f>
+        <f t="shared" ref="E6:E20" si="0">$C6*D6</f>
         <v>1.3</v>
       </c>
     </row>
@@ -604,25 +617,26 @@
     </row>
     <row r="11" spans="2:7">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>8.18</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
+        <v>8.18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -635,126 +649,164 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
+        <v>26</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C16">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.05</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>0.05</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D18">
         <v>0.05</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>0.05</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0.05</v>
+      </c>
       <c r="E20">
-        <f>SUM(E4:E18)</f>
-        <v>430.76000000000005</v>
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="E22">
+        <f>SUM(E4:E20)</f>
+        <v>464.94000000000005</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G10" r:id="rId1"/>
+    <hyperlink ref="F11" r:id="rId2" display="http://catalog.cshyde.com/item/-categories-ptfe-teflon-products-ptfe-teflon-films/fep-pfa-clear-ptfe-film/23-1-2fep-24?&amp;plpver=1002&amp;origin=keyword&amp;by=prod&amp;filter=0"/>
+    <hyperlink ref="F13" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
